--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>421246.3359829444</v>
+        <v>417108.8528480302</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33940801.53424101</v>
+        <v>33940801.534241</v>
       </c>
     </row>
     <row r="8">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.54712558012583</v>
+        <v>16.34386311678358</v>
       </c>
       <c r="C2" t="n">
-        <v>23.32779925082406</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="D2" t="n">
-        <v>23.32779925082406</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.32779925082406</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>20.54712558012668</v>
       </c>
       <c r="D3" t="n">
-        <v>20.54712558012583</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="F3" t="n">
-        <v>23.32779925082406</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.32779925082406</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.32779925082406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.8458783860901664</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="E4" t="n">
-        <v>20.54712558012583</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.32779925082406</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="G4" t="n">
-        <v>23.32779925082406</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>23.32779925082406</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>19.70124719403651</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.5887552948844</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E6" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>37.06736141641883</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W7" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>36.39025468426205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="10">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
-        <v>36.39025468426205</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1381,13 +1381,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>176.1446634785934</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>112.5516233540874</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1530,16 +1530,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>85.1488807209173</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>152.8093197685211</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>156.8476078895509</v>
+        <v>428.4263221807401</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1624,7 +1624,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1818,22 +1818,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>170.3034090720313</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>248.9208236446849</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>187.5335132761502</v>
+        <v>135.9033150470567</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
@@ -1906,13 +1906,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2010,10 +2010,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>85.1488807209182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>124.9554984777218</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>214.230991478422</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>130.7837217554836</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2247,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>161.9953021750144</v>
       </c>
       <c r="U22" t="n">
-        <v>204.4815503416885</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>128.3006595584388</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>157.7813688951154</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>64.09103728606671</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>11.45461388085721</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>59.96222715420087</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>187.4450760336518</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2715,25 +2715,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258614</v>
       </c>
       <c r="E28" t="n">
-        <v>62.50002140993379</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>109.5540470185023</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>160.7988598828761</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,10 +2967,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>126.0809427646072</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>214.5646102646778</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3031,22 +3031,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>118.191763526904</v>
       </c>
       <c r="G32" t="n">
-        <v>148.5323093579184</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3198,10 +3198,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>60.07073011995551</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>237.4644955258596</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>196.2291113321756</v>
+        <v>176.1446634785932</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>44.52455584283006</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3435,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811443</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>43.97954181326757</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>321.9370827829815</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>172.5998412330482</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.0525759745589</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>166.2831019059196</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3745,19 +3745,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>184.1838414910187</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>116.6395830120781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>22.68454702280377</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>147.7674509121267</v>
       </c>
     </row>
     <row r="44">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>373.6379449502021</v>
       </c>
       <c r="F44" t="n">
-        <v>143.1140073914396</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>126.089799394934</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>97.59530767934594</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.55652470013885</v>
+        <v>72.55652470014178</v>
       </c>
       <c r="C2" t="n">
-        <v>48.99309111344787</v>
+        <v>48.99309111344986</v>
       </c>
       <c r="D2" t="n">
-        <v>25.4296575267569</v>
+        <v>48.99309111344986</v>
       </c>
       <c r="E2" t="n">
-        <v>1.866223940065925</v>
+        <v>25.42965752675793</v>
       </c>
       <c r="F2" t="n">
-        <v>1.866223940065925</v>
+        <v>1.866223940066001</v>
       </c>
       <c r="G2" t="n">
-        <v>1.866223940065925</v>
+        <v>1.866223940066001</v>
       </c>
       <c r="H2" t="n">
-        <v>1.866223940065925</v>
+        <v>1.866223940066001</v>
       </c>
       <c r="I2" t="n">
-        <v>4.30078039474588</v>
+        <v>4.300780394746077</v>
       </c>
       <c r="J2" t="n">
-        <v>10.55978981922361</v>
+        <v>10.55978981922405</v>
       </c>
       <c r="K2" t="n">
-        <v>19.94042246570039</v>
+        <v>19.9404224657012</v>
       </c>
       <c r="L2" t="n">
-        <v>31.57792675593464</v>
+        <v>31.57792675593591</v>
       </c>
       <c r="M2" t="n">
-        <v>44.52689258583874</v>
+        <v>44.52689258584053</v>
       </c>
       <c r="N2" t="n">
-        <v>57.68538622059768</v>
+        <v>57.68538622059999</v>
       </c>
       <c r="O2" t="n">
-        <v>70.11057862895092</v>
+        <v>70.11057862895373</v>
       </c>
       <c r="P2" t="n">
-        <v>80.71519288249429</v>
+        <v>80.71519288249753</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.67881654690841</v>
+        <v>88.67881654691197</v>
       </c>
       <c r="R2" t="n">
-        <v>93.31119700329626</v>
+        <v>93.31119700330004</v>
       </c>
       <c r="S2" t="n">
-        <v>93.31119700329626</v>
+        <v>93.31119700330004</v>
       </c>
       <c r="T2" t="n">
-        <v>93.31119700329626</v>
+        <v>93.31119700330004</v>
       </c>
       <c r="U2" t="n">
-        <v>93.31119700329626</v>
+        <v>93.31119700330004</v>
       </c>
       <c r="V2" t="n">
-        <v>93.31119700329626</v>
+        <v>93.31119700330004</v>
       </c>
       <c r="W2" t="n">
-        <v>93.31119700329626</v>
+        <v>93.31119700330004</v>
       </c>
       <c r="X2" t="n">
-        <v>93.31119700329626</v>
+        <v>93.31119700330004</v>
       </c>
       <c r="Y2" t="n">
-        <v>93.31119700329626</v>
+        <v>89.06547734335751</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.1843298299143</v>
+        <v>93.31119700330004</v>
       </c>
       <c r="C3" t="n">
-        <v>46.1843298299143</v>
+        <v>72.55652470014178</v>
       </c>
       <c r="D3" t="n">
-        <v>25.4296575267569</v>
+        <v>72.55652470014178</v>
       </c>
       <c r="E3" t="n">
-        <v>25.4296575267569</v>
+        <v>48.99309111344986</v>
       </c>
       <c r="F3" t="n">
-        <v>1.866223940065925</v>
+        <v>25.42965752675793</v>
       </c>
       <c r="G3" t="n">
-        <v>1.866223940065925</v>
+        <v>25.42965752675793</v>
       </c>
       <c r="H3" t="n">
-        <v>1.866223940065925</v>
+        <v>1.866223940066001</v>
       </c>
       <c r="I3" t="n">
-        <v>3.22472222740112</v>
+        <v>24.96074519838276</v>
       </c>
       <c r="J3" t="n">
-        <v>6.952545362112895</v>
+        <v>33.70409941137597</v>
       </c>
       <c r="K3" t="n">
-        <v>13.32398885826829</v>
+        <v>40.07554290753163</v>
       </c>
       <c r="L3" t="n">
-        <v>22.71331487683118</v>
+        <v>48.64273497307704</v>
       </c>
       <c r="M3" t="n">
-        <v>45.807836135147</v>
+        <v>58.64024402522447</v>
       </c>
       <c r="N3" t="n">
-        <v>68.90235739346282</v>
+        <v>68.90235739346561</v>
       </c>
       <c r="O3" t="n">
-        <v>78.29018625882235</v>
+        <v>78.29018625882551</v>
       </c>
       <c r="P3" t="n">
-        <v>85.82474656888601</v>
+        <v>85.82474656888947</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.86140060131957</v>
+        <v>90.86140060132324</v>
       </c>
       <c r="R3" t="n">
-        <v>93.31119700329626</v>
+        <v>93.31119700330004</v>
       </c>
       <c r="S3" t="n">
-        <v>69.74776341660528</v>
+        <v>93.31119700330004</v>
       </c>
       <c r="T3" t="n">
-        <v>69.74776341660528</v>
+        <v>93.31119700330004</v>
       </c>
       <c r="U3" t="n">
-        <v>69.74776341660528</v>
+        <v>93.31119700330004</v>
       </c>
       <c r="V3" t="n">
-        <v>69.74776341660528</v>
+        <v>93.31119700330004</v>
       </c>
       <c r="W3" t="n">
-        <v>69.74776341660528</v>
+        <v>93.31119700330004</v>
       </c>
       <c r="X3" t="n">
-        <v>69.74776341660528</v>
+        <v>93.31119700330004</v>
       </c>
       <c r="Y3" t="n">
-        <v>46.1843298299143</v>
+        <v>93.31119700330004</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.31119700329626</v>
+        <v>73.41094731235407</v>
       </c>
       <c r="C4" t="n">
-        <v>93.31119700329626</v>
+        <v>72.55652470014178</v>
       </c>
       <c r="D4" t="n">
-        <v>93.31119700329626</v>
+        <v>48.99309111344986</v>
       </c>
       <c r="E4" t="n">
-        <v>72.55652470013885</v>
+        <v>48.99309111344986</v>
       </c>
       <c r="F4" t="n">
-        <v>48.99309111344787</v>
+        <v>25.42965752675793</v>
       </c>
       <c r="G4" t="n">
-        <v>25.4296575267569</v>
+        <v>25.42965752675793</v>
       </c>
       <c r="H4" t="n">
-        <v>1.866223940065925</v>
+        <v>1.866223940066001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.866223940065925</v>
+        <v>1.866223940066001</v>
       </c>
       <c r="J4" t="n">
-        <v>24.96074519838175</v>
+        <v>24.96074519838276</v>
       </c>
       <c r="K4" t="n">
-        <v>48.05526645669757</v>
+        <v>48.05526645669951</v>
       </c>
       <c r="L4" t="n">
-        <v>53.70823065769922</v>
+        <v>71.14978771501627</v>
       </c>
       <c r="M4" t="n">
-        <v>76.80275191601504</v>
+        <v>76.80275191601817</v>
       </c>
       <c r="N4" t="n">
-        <v>81.86480846210593</v>
+        <v>81.86480846210924</v>
       </c>
       <c r="O4" t="n">
-        <v>86.54043700001485</v>
+        <v>86.54043700001834</v>
       </c>
       <c r="P4" t="n">
-        <v>90.5412449539858</v>
+        <v>90.54124495398945</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.31119700329626</v>
+        <v>93.31119700330004</v>
       </c>
       <c r="R4" t="n">
-        <v>93.31119700329626</v>
+        <v>73.41094731235407</v>
       </c>
       <c r="S4" t="n">
-        <v>93.31119700329626</v>
+        <v>73.41094731235407</v>
       </c>
       <c r="T4" t="n">
-        <v>93.31119700329626</v>
+        <v>73.41094731235407</v>
       </c>
       <c r="U4" t="n">
-        <v>93.31119700329626</v>
+        <v>73.41094731235407</v>
       </c>
       <c r="V4" t="n">
-        <v>93.31119700329626</v>
+        <v>73.41094731235407</v>
       </c>
       <c r="W4" t="n">
-        <v>93.31119700329626</v>
+        <v>73.41094731235407</v>
       </c>
       <c r="X4" t="n">
-        <v>93.31119700329626</v>
+        <v>73.41094731235407</v>
       </c>
       <c r="Y4" t="n">
-        <v>93.31119700329626</v>
+        <v>73.41094731235407</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064266</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549124</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E5" t="n">
-        <v>27.13222579419047</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F5" t="n">
         <v>3.305200243802188</v>
@@ -4564,22 +4564,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I5" t="n">
-        <v>7.922179662952754</v>
+        <v>7.922179662952697</v>
       </c>
       <c r="J5" t="n">
-        <v>18.98581709030271</v>
+        <v>18.98581709030266</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176024</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654182</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682888</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N5" t="n">
-        <v>102.286620264271</v>
+        <v>102.2866202642709</v>
       </c>
       <c r="O5" t="n">
         <v>124.2498119529546</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128.5021791757033</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="C6" t="n">
-        <v>128.5021791757033</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="D6" t="n">
-        <v>86.76985286506958</v>
+        <v>86.08590667097184</v>
       </c>
       <c r="E6" t="n">
-        <v>45.03752655443589</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="F6" t="n">
-        <v>3.305200243802188</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="G6" t="n">
-        <v>3.305200243802188</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
@@ -4646,28 +4646,28 @@
         <v>31.77020107089877</v>
       </c>
       <c r="J6" t="n">
-        <v>59.8964840134897</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K6" t="n">
-        <v>71.15886372083332</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L6" t="n">
-        <v>86.30252310133814</v>
+        <v>64.76566681697273</v>
       </c>
       <c r="M6" t="n">
-        <v>103.9744593181195</v>
+        <v>82.43760303375414</v>
       </c>
       <c r="N6" t="n">
-        <v>122.1141191020718</v>
+        <v>100.5772628177064</v>
       </c>
       <c r="O6" t="n">
-        <v>138.7083639341947</v>
+        <v>117.1715076498293</v>
       </c>
       <c r="P6" t="n">
-        <v>152.0267083864403</v>
+        <v>130.4898521020749</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.929668948206</v>
+        <v>139.3928126638406</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
@@ -4688,10 +4688,10 @@
         <v>165.2600121901094</v>
       </c>
       <c r="X6" t="n">
-        <v>165.2600121901094</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.2600121901094</v>
+        <v>127.8182329816055</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.79535956884203</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="C7" t="n">
-        <v>45.03752655443589</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="D7" t="n">
-        <v>3.305200243802188</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="E7" t="n">
-        <v>3.305200243802188</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="F7" t="n">
         <v>3.305200243802188</v>
@@ -4725,52 +4725,52 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>7.439194768028657</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>14.23261768427069</v>
+        <v>84.39018768250003</v>
       </c>
       <c r="L7" t="n">
-        <v>22.9258601234117</v>
+        <v>93.08343012164104</v>
       </c>
       <c r="M7" t="n">
-        <v>32.09166539295484</v>
+        <v>102.2492353911842</v>
       </c>
       <c r="N7" t="n">
-        <v>42.55445313895319</v>
+        <v>111.1970982979997</v>
       </c>
       <c r="O7" t="n">
-        <v>83.45630615600527</v>
+        <v>119.4618979460225</v>
       </c>
       <c r="P7" t="n">
-        <v>124.3581591730573</v>
+        <v>160.3637509630746</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V7" t="n">
-        <v>165.2600121901094</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="W7" t="n">
-        <v>123.5276858794757</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="X7" t="n">
-        <v>81.79535956884203</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="Y7" t="n">
-        <v>81.79535956884203</v>
+        <v>63.06004933219679</v>
       </c>
     </row>
     <row r="8">
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4792,13 +4792,13 @@
         <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
         <v>7.922179662952697</v>
@@ -4807,19 +4807,19 @@
         <v>18.98581709030266</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L8" t="n">
-        <v>56.13818908654176</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M8" t="n">
-        <v>79.02722044682884</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N8" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O8" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P8" t="n">
         <v>142.9948879228476</v>
@@ -4840,7 +4840,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="V8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
         <v>164.4449616415467</v>
@@ -4849,7 +4849,7 @@
         <v>149.3429022612615</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.0971826013189</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901093</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901093</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>123.5276858794757</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>81.79535956884197</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
         <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>38.35962772912429</v>
+        <v>59.89648401348967</v>
       </c>
       <c r="K9" t="n">
-        <v>49.62200743646791</v>
+        <v>71.1588637208333</v>
       </c>
       <c r="L9" t="n">
-        <v>64.76566681697273</v>
+        <v>86.30252310133811</v>
       </c>
       <c r="M9" t="n">
-        <v>82.43760303375414</v>
+        <v>103.9744593181195</v>
       </c>
       <c r="N9" t="n">
-        <v>100.5772628177064</v>
+        <v>122.1141191020718</v>
       </c>
       <c r="O9" t="n">
-        <v>117.1715076498293</v>
+        <v>138.7083639341947</v>
       </c>
       <c r="P9" t="n">
-        <v>130.4898521020749</v>
+        <v>152.0267083864403</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.3928126638406</v>
+        <v>160.929668948206</v>
       </c>
       <c r="R9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901093</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901093</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901093</v>
+        <v>40.06303325820834</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.2600121901093</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="C10" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D10" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E10" t="n">
-        <v>86.76985286506954</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>7.439194768028655</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>22.3214283767528</v>
+        <v>21.42042275523248</v>
       </c>
       <c r="L10" t="n">
-        <v>63.22328139380485</v>
+        <v>62.32227577228456</v>
       </c>
       <c r="M10" t="n">
-        <v>104.1251344108569</v>
+        <v>71.4880810418277</v>
       </c>
       <c r="N10" t="n">
-        <v>145.026987427909</v>
+        <v>112.3899340588798</v>
       </c>
       <c r="O10" t="n">
         <v>153.2917870759318</v>
       </c>
       <c r="P10" t="n">
-        <v>160.3637509630745</v>
+        <v>160.3637509630746</v>
       </c>
       <c r="Q10" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901093</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901093</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901093</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>165.2600121901093</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>165.2600121901093</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W10" t="n">
-        <v>165.2600121901093</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X10" t="n">
-        <v>165.2600121901093</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.2600121901093</v>
+        <v>63.06004933219679</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2360.327577447737</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="C11" t="n">
-        <v>1922.18510463116</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="D11" t="n">
-        <v>1486.275319805604</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E11" t="n">
-        <v>1052.500574963899</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
-        <v>624.6331453731073</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
-        <v>225.1304540525844</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.327577447737</v>
+        <v>1994.401447693174</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.327577447737</v>
+        <v>1586.115323992828</v>
       </c>
     </row>
     <row r="12">
@@ -5102,37 +5102,37 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235861</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210686</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960911</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987887</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
-        <v>1061.861364220109</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
         <v>1298.314267034639</v>
@@ -5141,7 +5141,7 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R12" t="n">
         <v>1676.651116233592</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.6552262893761</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="C13" t="n">
-        <v>299.0935147726011</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D13" t="n">
-        <v>133.2155219741237</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895473</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>358.0754347909398</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9462364092377</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.127311827552</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1635.885026789086</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2061.54819070094</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1783.161558749683</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774551</v>
+        <v>1496.206050620114</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1224.179646206405</v>
       </c>
       <c r="X13" t="n">
-        <v>890.893515694255</v>
+        <v>978.7878915398176</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083632</v>
+        <v>751.3682208539258</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1738.639935903077</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="C14" t="n">
-        <v>1738.639935903077</v>
+        <v>1307.330533248896</v>
       </c>
       <c r="D14" t="n">
-        <v>1302.730151077522</v>
+        <v>1307.330533248896</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.298223916359</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5299,31 +5299,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R14" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2101.256885969251</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V14" t="n">
-        <v>1738.639935903077</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W14" t="n">
-        <v>1738.639935903077</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="X14" t="n">
-        <v>1738.639935903077</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="Y14" t="n">
-        <v>1738.639935903077</v>
+        <v>1745.473006065473</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030332</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
         <v>79.1492015823585</v>
@@ -5399,10 +5399,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.413848425154</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C16" t="n">
-        <v>753.852136908379</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D16" t="n">
         <v>753.852136908379</v>
@@ -5436,25 +5436,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5466,22 +5466,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2043.877393424667</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>2043.877393424667</v>
       </c>
       <c r="V16" t="n">
-        <v>1443.83200750545</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="W16" t="n">
-        <v>1171.805603091741</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X16" t="n">
-        <v>926.413848425154</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y16" t="n">
-        <v>926.413848425154</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.3558941930748</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="C17" t="n">
-        <v>506.3558941930748</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="D17" t="n">
-        <v>506.3558941930748</v>
+        <v>612.3500569448547</v>
       </c>
       <c r="E17" t="n">
-        <v>506.3558941930748</v>
+        <v>612.3500569448547</v>
       </c>
       <c r="F17" t="n">
-        <v>506.3558941930748</v>
+        <v>184.4826273540625</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1738.639935903077</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W17" t="n">
-        <v>1333.784481314111</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X17" t="n">
-        <v>914.6420178934214</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.3558941930748</v>
+        <v>1486.402314586987</v>
       </c>
     </row>
     <row r="18">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.655226289377</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C19" t="n">
-        <v>299.093514772602</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D19" t="n">
-        <v>133.2155219741246</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E19" t="n">
-        <v>47.20655154895474</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
         <v>47.20655154895474</v>
@@ -5673,25 +5673,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L19" t="n">
-        <v>733.4227107706872</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M19" t="n">
-        <v>1317.603786189002</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N19" t="n">
-        <v>1887.361501150536</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498298</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>485.3490243655314</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
-        <v>47.20655154895474</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>47.20655154895474</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
         <v>47.20655154895474</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>2143.932636560442</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W20" t="n">
-        <v>1739.077181971475</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X20" t="n">
-        <v>1319.934718550786</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y20" t="n">
-        <v>911.6485948504392</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>959.9477806029472</v>
+        <v>694.697370523135</v>
       </c>
       <c r="C22" t="n">
-        <v>787.3860690861721</v>
+        <v>522.1356590063599</v>
       </c>
       <c r="D22" t="n">
-        <v>621.5080762876948</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="E22" t="n">
-        <v>451.7500725384321</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F22" t="n">
-        <v>275.0430185001883</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G22" t="n">
-        <v>110.3018381127067</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895474</v>
@@ -5916,16 +5916,16 @@
         <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092381</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P22" t="n">
         <v>2274.089213540314</v>
@@ -5940,22 +5940,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>2196.695959089137</v>
       </c>
       <c r="U22" t="n">
-        <v>1911.533332803983</v>
+        <v>1918.309327137879</v>
       </c>
       <c r="V22" t="n">
-        <v>1624.577824674414</v>
+        <v>1631.35381900831</v>
       </c>
       <c r="W22" t="n">
-        <v>1624.577824674414</v>
+        <v>1359.327414594601</v>
       </c>
       <c r="X22" t="n">
-        <v>1379.186070007826</v>
+        <v>1113.935659928014</v>
       </c>
       <c r="Y22" t="n">
-        <v>1151.766399321934</v>
+        <v>886.515989242122</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1484.630179849397</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C23" t="n">
-        <v>1046.48770703282</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D23" t="n">
-        <v>610.5779222072645</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E23" t="n">
-        <v>176.8031773655596</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F23" t="n">
-        <v>176.8031773655596</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>176.8031773655596</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>1889.485634438363</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V23" t="n">
-        <v>1889.485634438363</v>
+        <v>1948.71483603557</v>
       </c>
       <c r="W23" t="n">
-        <v>1484.630179849397</v>
+        <v>1543.859381446603</v>
       </c>
       <c r="X23" t="n">
-        <v>1484.630179849397</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y23" t="n">
-        <v>1484.630179849397</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>765.0997489345757</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P24" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q24" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R24" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S24" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T24" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U24" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V24" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>927.5506608361497</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C25" t="n">
-        <v>754.9889493193747</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D25" t="n">
-        <v>589.1109565208974</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E25" t="n">
-        <v>419.3529527716346</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F25" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
         <v>106.1122152511379</v>
@@ -6153,19 +6153,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>326.783117436994</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M25" t="n">
-        <v>910.9641928553089</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N25" t="n">
-        <v>1480.721907816843</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O25" t="n">
-        <v>2018.157038390386</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T25" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>2151.162617450894</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1864.207109321325</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W25" t="n">
-        <v>1592.180704907616</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X25" t="n">
-        <v>1346.788950241029</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y25" t="n">
-        <v>1119.369279555137</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1536.329659438081</v>
+        <v>535.6418873561115</v>
       </c>
       <c r="C26" t="n">
-        <v>1098.187186621504</v>
+        <v>535.6418873561115</v>
       </c>
       <c r="D26" t="n">
-        <v>1098.187186621504</v>
+        <v>535.6418873561115</v>
       </c>
       <c r="E26" t="n">
-        <v>664.4124417797993</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>236.5450121890071</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G26" t="n">
-        <v>236.5450121890071</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
         <v>2043.069798152528</v>
@@ -6256,22 +6256,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W26" t="n">
-        <v>1955.47212285877</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="X26" t="n">
-        <v>1536.329659438081</v>
+        <v>961.9414578410193</v>
       </c>
       <c r="Y26" t="n">
-        <v>1536.329659438081</v>
+        <v>961.9414578410193</v>
       </c>
     </row>
     <row r="27">
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.655226289377</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C28" t="n">
-        <v>471.655226289377</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D28" t="n">
-        <v>305.7772334908997</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E28" t="n">
-        <v>242.6458987333908</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F28" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G28" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H28" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
@@ -6390,19 +6390,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>326.783117436994</v>
+        <v>588.0160255186812</v>
       </c>
       <c r="M28" t="n">
-        <v>910.9641928553089</v>
+        <v>718.6204178572107</v>
       </c>
       <c r="N28" t="n">
-        <v>1480.721907816843</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O28" t="n">
-        <v>2018.157038390386</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W28" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X28" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>919.1237692072363</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C29" t="n">
-        <v>480.9812963906596</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D29" t="n">
-        <v>480.9812963906596</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O29" t="n">
         <v>1775.96950697326</v>
@@ -6484,31 +6484,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R29" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T29" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U29" t="n">
-        <v>1849.01926465316</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V29" t="n">
-        <v>1486.402314586987</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W29" t="n">
-        <v>1081.54685999802</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X29" t="n">
-        <v>919.1237692072363</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y29" t="n">
-        <v>919.1237692072363</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043086</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>730.9745012407179</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C31" t="n">
-        <v>558.4127897239429</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D31" t="n">
-        <v>558.4127897239429</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E31" t="n">
-        <v>388.6547859746801</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F31" t="n">
-        <v>211.9477319364363</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>393.4422361027648</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L31" t="n">
-        <v>935.5229194890237</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R31" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2232.97308980672</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1954.586457855462</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V31" t="n">
-        <v>1667.630949725893</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="W31" t="n">
-        <v>1395.604545312184</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X31" t="n">
-        <v>1150.212790645597</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7931199597051</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>894.8281683109057</v>
+        <v>1474.419173756937</v>
       </c>
       <c r="C32" t="n">
-        <v>894.8281683109057</v>
+        <v>1036.276700940361</v>
       </c>
       <c r="D32" t="n">
-        <v>894.8281683109057</v>
+        <v>600.366916114805</v>
       </c>
       <c r="E32" t="n">
-        <v>894.8281683109057</v>
+        <v>166.5921712731002</v>
       </c>
       <c r="F32" t="n">
-        <v>466.9607387201134</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W32" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X32" t="n">
-        <v>1729.41386249616</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y32" t="n">
-        <v>1321.127738795813</v>
+        <v>1900.718744241845</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>555.4042596134699</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C34" t="n">
-        <v>382.8425480966948</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D34" t="n">
-        <v>216.9645552982175</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895474</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G34" t="n">
         <v>47.20655154895474</v>
@@ -6858,25 +6858,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>1019.751453776091</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M34" t="n">
-        <v>1150.35584611462</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N34" t="n">
-        <v>1277.854757918509</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>1901.869573656742</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2299.650072276065</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2057.402848179471</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U34" t="n">
-        <v>1779.016216228214</v>
+        <v>2120.464450653939</v>
       </c>
       <c r="V34" t="n">
-        <v>1492.060708098645</v>
+        <v>1833.50894252437</v>
       </c>
       <c r="W34" t="n">
-        <v>1220.034303684936</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X34" t="n">
-        <v>974.6425490183487</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y34" t="n">
-        <v>747.222878332457</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>716.4307943255671</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="C35" t="n">
-        <v>716.4307943255671</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D35" t="n">
-        <v>716.4307943255671</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E35" t="n">
-        <v>716.4307943255671</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6967,22 +6967,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2162.116353879883</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="U35" t="n">
-        <v>1903.045662401397</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="V35" t="n">
-        <v>1540.428712335223</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="W35" t="n">
-        <v>1135.573257746256</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="X35" t="n">
-        <v>716.4307943255671</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="Y35" t="n">
-        <v>716.4307943255671</v>
+        <v>2182.403674944107</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030332</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7025,7 +7025,7 @@
         <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987881</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7058,10 +7058,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X36" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y36" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.291841223631</v>
+        <v>618.4995461772218</v>
       </c>
       <c r="C37" t="n">
-        <v>919.7301297068562</v>
+        <v>445.9378346604467</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>280.0598418619694</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H37" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L37" t="n">
-        <v>688.1212571728195</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M37" t="n">
-        <v>818.7256495113489</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N37" t="n">
-        <v>1120.185357954413</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>2315.903797838376</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>2028.948289708806</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W37" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.53013062851</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1782.900983623584</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.758510807007</v>
+        <v>1519.101784779783</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>1083.191999954228</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>649.417255112523</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895473</v>
+        <v>221.5498255217307</v>
       </c>
       <c r="G38" t="n">
         <v>47.20655154895473</v>
@@ -7171,16 +7171,16 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
@@ -7204,22 +7204,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V38" t="n">
-        <v>2108.089956131646</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W38" t="n">
-        <v>2108.089956131646</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X38" t="n">
-        <v>2108.089956131646</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="Y38" t="n">
-        <v>2108.089956131646</v>
+        <v>1957.24425759636</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>753.852136908379</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C40" t="n">
-        <v>753.852136908379</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D40" t="n">
-        <v>753.852136908379</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895473</v>
@@ -7338,13 +7338,13 @@
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092379</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O40" t="n">
         <v>2173.32015736263</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.464093523123</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.464093523123</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1690.508585393554</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1418.482180979845</v>
+        <v>1384.775484072418</v>
       </c>
       <c r="X40" t="n">
-        <v>1173.090426313258</v>
+        <v>1139.38372940583</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.6707556273661</v>
+        <v>911.9640587199385</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.900983623584</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>902.4750786599295</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
@@ -7411,16 +7411,16 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
@@ -7429,10 +7429,10 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447737</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W41" t="n">
-        <v>2202.043447044273</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X41" t="n">
-        <v>1782.900983623584</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="Y41" t="n">
-        <v>1782.900983623584</v>
+        <v>1340.617551476506</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>542.5713050663908</v>
+        <v>542.571305066391</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030331</v>
+        <v>436.1148439030333</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495865</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.9041403765402</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927018</v>
       </c>
       <c r="G42" t="n">
         <v>79.1492015823585</v>
@@ -7487,19 +7487,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7529,13 +7529,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>945.2284211280532</v>
+        <v>945.2284211280535</v>
       </c>
       <c r="X42" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669334</v>
       </c>
       <c r="Y42" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461541</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.655226289377</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C43" t="n">
-        <v>299.093514772602</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D43" t="n">
-        <v>133.2155219741246</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E43" t="n">
-        <v>110.3018381127067</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F43" t="n">
         <v>110.3018381127067</v>
@@ -7569,25 +7569,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7611,10 +7611,10 @@
         <v>1136.285270360843</v>
       </c>
       <c r="X43" t="n">
-        <v>890.8935156942559</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083642</v>
+        <v>987.0252189344528</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1463.186063953456</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="C44" t="n">
-        <v>1025.043591136879</v>
+        <v>1260.031093301298</v>
       </c>
       <c r="D44" t="n">
-        <v>1025.043591136879</v>
+        <v>824.1213084757424</v>
       </c>
       <c r="E44" t="n">
-        <v>591.2688462951742</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F44" t="n">
         <v>446.7092428694776</v>
@@ -7654,7 +7654,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>1889.485634438363</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V44" t="n">
-        <v>1889.485634438363</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W44" t="n">
-        <v>1889.485634438363</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="X44" t="n">
-        <v>1889.485634438363</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1889.485634438363</v>
+        <v>1698.173566117875</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.655226289377</v>
+        <v>995.4336129072215</v>
       </c>
       <c r="C46" t="n">
-        <v>471.655226289377</v>
+        <v>822.8719013904464</v>
       </c>
       <c r="D46" t="n">
-        <v>344.2917925571204</v>
+        <v>656.9939085919691</v>
       </c>
       <c r="E46" t="n">
-        <v>344.2917925571204</v>
+        <v>487.2359048427064</v>
       </c>
       <c r="F46" t="n">
-        <v>344.2917925571204</v>
+        <v>310.5288508044625</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>145.7876704169809</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895474</v>
@@ -7815,16 +7815,16 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7839,19 +7839,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X46" t="n">
-        <v>890.8935156942559</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083642</v>
+        <v>1187.252231626209</v>
       </c>
     </row>
   </sheetData>
@@ -8054,22 +8054,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>21.95557875856718</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>5.066193008364937</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.830438336381631</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>13.22930525875636</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>12.96202817179303</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.96545941697505</v>
+        <v>20.9654594169759</v>
       </c>
       <c r="K4" t="n">
-        <v>19.4457492216881</v>
+        <v>19.44574922168889</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7423773552485926</v>
+        <v>18.36011175657679</v>
       </c>
       <c r="M4" t="n">
-        <v>18.09006930932238</v>
+        <v>0.4723349079949628</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>21.75440028723779</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>37.13925100285415</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>33.72698131858964</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8385,16 +8385,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.530227110285688</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>32.96672057477707</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>34.17160518172663</v>
+        <v>34.17160518172662</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.36928463638105</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>21.7544002872377</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,19 +8613,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>8.170515850992029</v>
+        <v>7.260409162587674</v>
       </c>
       <c r="L10" t="n">
-        <v>32.53395007869803</v>
+        <v>32.53395007869804</v>
       </c>
       <c r="M10" t="n">
-        <v>32.05661388637265</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>32.27675768710763</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>32.96672057477704</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>69.27619576520587</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -9093,19 +9093,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>45.75904403825041</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042869</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>263.871624324937</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9576,7 +9576,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9801,19 +9801,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P25" t="n">
-        <v>156.730423204287</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>263.8716243249365</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>156.7304232042869</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>105.0002374943221</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10281,16 +10281,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>10.62967161640017</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10521,13 +10521,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>264.6463123855402</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>274.1925087938259</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>175.7179764032069</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>264.6463123855406</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10986,13 +10986,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042868</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>181.0222629918455</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11463,13 +11463,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.489449199932857</v>
+        <v>5.692711663275109</v>
       </c>
       <c r="C2" t="n">
-        <v>10.43324883758685</v>
+        <v>10.43324883758591</v>
       </c>
       <c r="D2" t="n">
-        <v>8.22288772647584</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>6.10919814246369</v>
+        <v>6.109198142462745</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>0.2609560440593128</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23260,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>90.87967246293529</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
@@ -23323,10 +23323,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>302.399415432395</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.91154299085281</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>87.01543208710629</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>272.5893895037368</v>
+        <v>1.010675212547653</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>69.52134278359617</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>35.16512940358896</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>207.9741511311674</v>
+        <v>259.6043493602609</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>82.91154299085191</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>114.8692533779057</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24028,16 +24028,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>144.7597890870897</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>284.1673170309988</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>77.82944968061298</v>
       </c>
       <c r="U22" t="n">
-        <v>71.12121529005586</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>138.7236763830898</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>201.2094116703963</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24381,10 +24381,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>211.5117283456777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>257.8515264887142</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>369.4747702390869</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>79.57925990787683</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="E28" t="n">
-        <v>105.5604023018363</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>146.9259375451989</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>254.1521789036063</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>113.7438090910202</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>54.7415301048936</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>305.3969917679804</v>
       </c>
       <c r="G32" t="n">
-        <v>246.9753550493992</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25086,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.91154299085231</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>38.1382701058848</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>13.42442768340328</v>
+        <v>33.5088755369857</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>145.3758766889672</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>231.6232238184768</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.0994919970772</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>222.9078231742694</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>3.772175881068534</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>103.0230384636517</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>247.3668454862812</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>284.1673170309988</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>145.3758766889663</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>77.37802306690608</v>
       </c>
     </row>
     <row r="44">
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>55.79905244308566</v>
       </c>
       <c r="F44" t="n">
-        <v>280.4747479034447</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>38.12941347555848</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>33.42531233513132</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>584741.1664131064</v>
+        <v>584741.1664131067</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>361206.9923317391</v>
+        <v>361206.9923317392</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>361206.9923317391</v>
+        <v>361206.992331739</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>361206.9923317391</v>
+        <v>361206.992331739</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>361206.9923317391</v>
+        <v>361206.9923317392</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>361206.9923317391</v>
+        <v>361206.992331739</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>361206.992331739</v>
+        <v>361206.9923317392</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>344884.0606555931</v>
+        <v>344884.0606555933</v>
       </c>
       <c r="C2" t="n">
+        <v>348495.7579287653</v>
+      </c>
+      <c r="D2" t="n">
         <v>348495.7579287654</v>
       </c>
-      <c r="D2" t="n">
-        <v>348495.7579287653</v>
-      </c>
       <c r="E2" t="n">
-        <v>204486.8426910625</v>
+        <v>204486.8426910626</v>
       </c>
       <c r="F2" t="n">
-        <v>204486.8426910627</v>
+        <v>204486.8426910626</v>
       </c>
       <c r="G2" t="n">
         <v>204486.8426910626</v>
@@ -26346,10 +26346,10 @@
         <v>204486.8426910626</v>
       </c>
       <c r="M2" t="n">
-        <v>204486.8426910626</v>
+        <v>204486.8426910625</v>
       </c>
       <c r="N2" t="n">
-        <v>204486.8426910626</v>
+        <v>204486.8426910625</v>
       </c>
       <c r="O2" t="n">
         <v>204486.8426910626</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25672.80150168866</v>
+        <v>25672.8015016897</v>
       </c>
       <c r="C3" t="n">
-        <v>18763.31828088824</v>
+        <v>18763.31828088725</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6103.578707182612</v>
+        <v>6103.578707182859</v>
       </c>
       <c r="K3" t="n">
-        <v>4629.330666749933</v>
+        <v>4629.330666749746</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>294235.7031510526</v>
       </c>
       <c r="D4" t="n">
-        <v>294235.7031510526</v>
+        <v>294235.7031510527</v>
       </c>
       <c r="E4" t="n">
-        <v>15620.1048454346</v>
+        <v>15620.10484543461</v>
       </c>
       <c r="F4" t="n">
         <v>15620.10484543461</v>
@@ -26438,10 +26438,10 @@
         <v>15620.10484543461</v>
       </c>
       <c r="I4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="J4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="K4" t="n">
         <v>15620.10484543461</v>
@@ -26456,7 +26456,7 @@
         <v>15620.1048454346</v>
       </c>
       <c r="O4" t="n">
-        <v>15620.1048454346</v>
+        <v>15620.10484543461</v>
       </c>
       <c r="P4" t="n">
         <v>15620.10484543461</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35449.86995413281</v>
+        <v>35449.86995413288</v>
       </c>
       <c r="C5" t="n">
         <v>36853.56981021012</v>
@@ -26478,7 +26478,7 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963782</v>
@@ -26490,19 +26490,19 @@
         <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12419.79116111946</v>
+        <v>-12433.68230447864</v>
       </c>
       <c r="C6" t="n">
-        <v>-1356.833313385585</v>
+        <v>-1356.833313384712</v>
       </c>
       <c r="D6" t="n">
-        <v>17406.48496750255</v>
+        <v>17406.48496750261</v>
       </c>
       <c r="E6" t="n">
-        <v>-369669.8529199916</v>
+        <v>-370223.7333632135</v>
       </c>
       <c r="F6" t="n">
-        <v>142815.6566359902</v>
+        <v>142261.7761927682</v>
       </c>
       <c r="G6" t="n">
-        <v>142815.6566359902</v>
+        <v>142261.7761927682</v>
       </c>
       <c r="H6" t="n">
-        <v>142815.6566359901</v>
+        <v>142261.7761927682</v>
       </c>
       <c r="I6" t="n">
-        <v>142815.6566359902</v>
+        <v>142261.7761927683</v>
       </c>
       <c r="J6" t="n">
-        <v>136712.0779288076</v>
+        <v>136158.1974855853</v>
       </c>
       <c r="K6" t="n">
-        <v>138186.3259692402</v>
+        <v>137632.4455260185</v>
       </c>
       <c r="L6" t="n">
-        <v>142815.6566359902</v>
+        <v>142261.7761927682</v>
       </c>
       <c r="M6" t="n">
-        <v>6060.752252874758</v>
+        <v>5506.871809652765</v>
       </c>
       <c r="N6" t="n">
-        <v>142815.6566359902</v>
+        <v>142261.7761927682</v>
       </c>
       <c r="O6" t="n">
-        <v>142815.6566359901</v>
+        <v>142261.7761927682</v>
       </c>
       <c r="P6" t="n">
-        <v>142815.6566359902</v>
+        <v>142261.7761927682</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443616</v>
+        <v>18.52934677443691</v>
       </c>
       <c r="C3" t="n">
         <v>32.7531020605716</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082406</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="C4" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619342</v>
@@ -26810,19 +26810,19 @@
         <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>590.0818943619341</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443616</v>
+        <v>18.52934677443691</v>
       </c>
       <c r="C3" t="n">
-        <v>14.22375528613544</v>
+        <v>14.22375528613469</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082406</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="C4" t="n">
-        <v>17.98720379670329</v>
+        <v>17.98720379670234</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082406</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670329</v>
+        <v>17.98720379670257</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082406</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670329</v>
+        <v>17.98720379670234</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>81.11791793379045</v>
+        <v>81.11791793379038</v>
       </c>
       <c r="T2" t="n">
         <v>217.5404755973798</v>
@@ -27460,22 +27460,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3918965517241</v>
+        <v>84.84477097159746</v>
       </c>
       <c r="D3" t="n">
-        <v>73.59226038478646</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631581</v>
+        <v>69.8514112754908</v>
       </c>
       <c r="F3" t="n">
-        <v>59.22220074917593</v>
+        <v>59.22220074917499</v>
       </c>
       <c r="G3" t="n">
         <v>84.49138326039709</v>
       </c>
       <c r="H3" t="n">
-        <v>40.93337470348447</v>
+        <v>17.60557545265945</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>38.75278408009049</v>
+        <v>62.08058333091452</v>
       </c>
       <c r="T3" t="n">
         <v>128.7162112922732</v>
@@ -27526,7 +27526,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>101.8931221777474</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="4">
@@ -27539,25 +27539,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>169.9902160155171</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>140.8914136196675</v>
       </c>
       <c r="E4" t="n">
-        <v>147.5132981316443</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>151.6121842470373</v>
+        <v>151.6121842470363</v>
       </c>
       <c r="G4" t="n">
-        <v>140.5741493974559</v>
+        <v>163.90194864828</v>
       </c>
       <c r="H4" t="n">
-        <v>114.8782762477478</v>
+        <v>114.8782762477469</v>
       </c>
       <c r="I4" t="n">
-        <v>86.76851237028724</v>
+        <v>86.7685123702872</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.70124719403657</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.0666475106129</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.70060738470343</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>52.82438291738492</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E6" t="n">
-        <v>51.86420747878846</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
-        <v>41.23499695247264</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
         <v>84.46078876789484</v>
       </c>
       <c r="H6" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>153.3187614035088</v>
+        <v>116.25139998709</v>
       </c>
       <c r="Y6" t="n">
         <v>125.2209214285714</v>
@@ -27776,16 +27776,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>134.4458397173452</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>157.097685947878</v>
       </c>
       <c r="G7" t="n">
         <v>163.8762992535017</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>156.6196485125224</v>
@@ -27833,13 +27833,13 @@
         <v>275.6454491228296</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W7" t="n">
         <v>227.991137322044</v>
       </c>
       <c r="X7" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27931,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>83.70060738470343</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>52.82438291738494</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>51.86420747878848</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>46.15974531573794</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>43.14578572036751</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
         <v>40.6378963153706</v>
@@ -27994,13 +27994,13 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>83.90591838104407</v>
       </c>
     </row>
     <row r="10">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
-        <v>134.4458397173453</v>
+        <v>152.993796851624</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>126.7454206642428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.5612962059744</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
         <v>137.9780290613614</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>156.6196485125224</v>
@@ -28076,10 +28076,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>183.8304709315055</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0744898362791403</v>
+        <v>0.0744898362791433</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7628690357937458</v>
+        <v>0.7628690357937765</v>
       </c>
       <c r="I2" t="n">
-        <v>2.871769413151559</v>
+        <v>2.871769413151675</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741896689</v>
+        <v>6.322231741896944</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511592701</v>
+        <v>9.475386511593081</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862044</v>
+        <v>11.75505483862092</v>
       </c>
       <c r="M2" t="n">
-        <v>13.0797634645496</v>
+        <v>13.07976346455013</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187771</v>
+        <v>13.29140771187825</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237701</v>
+        <v>12.55069940237752</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923573</v>
+        <v>10.71173156923616</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489018</v>
+        <v>8.044064307489341</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169551</v>
+        <v>4.67917217816974</v>
       </c>
       <c r="S2" t="n">
-        <v>1.697437144210911</v>
+        <v>1.69743714421098</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3260792583119368</v>
+        <v>0.3260792583119499</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005959186902331223</v>
+        <v>0.005959186902331463</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0398555760808627</v>
+        <v>0.0398555760808643</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3849209584651739</v>
+        <v>0.3849209584651895</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257773</v>
+        <v>1.372220492257828</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850278</v>
+        <v>3.76547791385043</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268078</v>
+        <v>6.435801511268338</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136438</v>
+        <v>8.653729359136786</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206771</v>
+        <v>10.09849399206811</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903104</v>
+        <v>10.36577107903146</v>
       </c>
       <c r="O3" t="n">
-        <v>9.48265541955508</v>
+        <v>9.482655419555462</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862281</v>
+        <v>7.610666979862588</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690474</v>
+        <v>5.087529325690678</v>
       </c>
       <c r="R3" t="n">
-        <v>2.474541820178476</v>
+        <v>2.474541820178576</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7402998451861991</v>
+        <v>0.7402998451862289</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1606459404311965</v>
+        <v>0.1606459404312029</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002622077373740968</v>
+        <v>0.002622077373741073</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03341357615062258</v>
+        <v>0.03341357615062393</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2970770679573538</v>
+        <v>0.2970770679573657</v>
       </c>
       <c r="I4" t="n">
-        <v>1.004837362784178</v>
+        <v>1.004837362784218</v>
       </c>
       <c r="J4" t="n">
-        <v>2.362339833849017</v>
+        <v>2.362339833849112</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029135969</v>
+        <v>3.882050029136125</v>
       </c>
       <c r="L4" t="n">
-        <v>4.967687494248017</v>
+        <v>4.967687494248217</v>
       </c>
       <c r="M4" t="n">
-        <v>5.237729941501684</v>
+        <v>5.237729941501894</v>
       </c>
       <c r="N4" t="n">
-        <v>5.113188430394822</v>
+        <v>5.113188430395027</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108998911</v>
+        <v>4.722857108999101</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526206</v>
+        <v>4.04122015552637</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362939861</v>
+        <v>2.797931362939973</v>
       </c>
       <c r="R4" t="n">
-        <v>1.502395887645266</v>
+        <v>1.502395887645326</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5823075043703952</v>
+        <v>0.5823075043704187</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1427670980981146</v>
+        <v>0.1427670980981204</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00182255869912487</v>
+        <v>0.001822558699124944</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32329,7 +32329,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917233</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32548,7 +32548,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -32569,7 +32569,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -32785,10 +32785,10 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691673</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -33025,7 +33025,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33280,7 +33280,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -33523,7 +33523,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,19 +33730,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -33760,16 +33760,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,10 +33836,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417549</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34695,34 +34695,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.459147934020161</v>
+        <v>2.459147934020277</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741896701</v>
+        <v>6.322231741896942</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511592703</v>
+        <v>9.475386511593079</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862045</v>
+        <v>11.75505483862092</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346454961</v>
+        <v>13.07976346455012</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187771</v>
+        <v>13.29140771187825</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237701</v>
+        <v>12.55069940237752</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923572</v>
+        <v>10.71173156923616</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489009</v>
+        <v>8.044064307489336</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169551</v>
+        <v>4.67917217816975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257773</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850278</v>
+        <v>8.831670922215366</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268078</v>
+        <v>6.435801511268338</v>
       </c>
       <c r="L3" t="n">
-        <v>9.484167695518069</v>
+        <v>8.653729359136783</v>
       </c>
       <c r="M3" t="n">
-        <v>23.32779925082406</v>
+        <v>10.09849399206811</v>
       </c>
       <c r="N3" t="n">
-        <v>23.32779925082406</v>
+        <v>10.36577107903145</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555073</v>
+        <v>9.482655419555456</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862287</v>
+        <v>7.610666979862586</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690468</v>
+        <v>5.087529325690682</v>
       </c>
       <c r="R3" t="n">
-        <v>2.474541820178473</v>
+        <v>2.474541820178572</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082406</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="K4" t="n">
-        <v>23.32779925082407</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="L4" t="n">
-        <v>5.710064849496611</v>
+        <v>23.32779925082501</v>
       </c>
       <c r="M4" t="n">
-        <v>23.32779925082406</v>
+        <v>5.71006484949686</v>
       </c>
       <c r="N4" t="n">
-        <v>5.113188430394828</v>
+        <v>5.113188430395027</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108998909</v>
+        <v>4.722857108999094</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526219</v>
+        <v>4.041220155526375</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362939863</v>
+        <v>2.797931362939977</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>4.663615574899505</v>
       </c>
       <c r="J5" t="n">
-        <v>11.17539134075753</v>
+        <v>11.17539134075754</v>
       </c>
       <c r="K5" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L5" t="n">
         <v>20.77863378260766</v>
@@ -34953,7 +34953,7 @@
         <v>22.18504210978145</v>
       </c>
       <c r="P5" t="n">
-        <v>18.93442017160915</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q5" t="n">
         <v>14.21896100560221</v>
@@ -35014,7 +35014,7 @@
         <v>28.75252608797635</v>
       </c>
       <c r="J6" t="n">
-        <v>28.41038681069791</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K6" t="n">
         <v>11.37614111852891</v>
@@ -35038,7 +35038,7 @@
         <v>8.99288945632901</v>
       </c>
       <c r="R6" t="n">
-        <v>4.37408408273069</v>
+        <v>26.12848436996845</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4.175752044673201</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>6.862043349739426</v>
+        <v>40.58902466832906</v>
       </c>
       <c r="L7" t="n">
-        <v>8.781052968829309</v>
+        <v>8.781052968829314</v>
       </c>
       <c r="M7" t="n">
-        <v>9.258389161154689</v>
+        <v>9.258389161154682</v>
       </c>
       <c r="N7" t="n">
-        <v>10.56847247070539</v>
+        <v>9.038245360419708</v>
       </c>
       <c r="O7" t="n">
-        <v>41.31500304752736</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P7" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.31500304752736</v>
+        <v>4.945718411146316</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L8" t="n">
-        <v>20.77863378260765</v>
+        <v>20.77863378260766</v>
       </c>
       <c r="M8" t="n">
-        <v>23.12023369725968</v>
+        <v>23.12023369725966</v>
       </c>
       <c r="N8" t="n">
         <v>23.49434324994148</v>
@@ -35251,7 +35251,7 @@
         <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460122</v>
+        <v>28.41038681069788</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
@@ -35275,7 +35275,7 @@
         <v>8.99288945632901</v>
       </c>
       <c r="R9" t="n">
-        <v>26.12848436996839</v>
+        <v>4.37408408273069</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,19 +35333,19 @@
         <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>15.03255920073146</v>
+        <v>14.1224525123271</v>
       </c>
       <c r="L10" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752733</v>
+        <v>9.258389161154689</v>
       </c>
       <c r="N10" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="O10" t="n">
-        <v>8.348282472750299</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="P10" t="n">
         <v>7.143397865800722</v>
@@ -35409,7 +35409,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -35418,7 +35418,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415865</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108057</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
@@ -35509,10 +35509,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>167.0540751263758</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35646,7 +35646,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35655,7 +35655,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35664,13 +35664,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712369</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35898,7 +35898,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184536</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>170.881065874915</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36284,19 +36284,19 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>281.8524450409515</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>395.7952529497143</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
         <v>70.4719911420766</v>
@@ -36357,7 +36357,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -36366,7 +36366,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691673</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36457,10 +36457,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M25" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P25" t="n">
-        <v>258.5173486362903</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
         <v>70.4719911420766</v>
@@ -36612,13 +36612,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36755,13 +36755,13 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366646</v>
+        <v>388.9936461616011</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N28" t="n">
         <v>575.5128433954891</v>
@@ -36770,7 +36770,7 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>258.5173486362903</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
@@ -36831,7 +36831,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
@@ -36840,7 +36840,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36849,7 +36849,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K31" t="n">
-        <v>202.778116855492</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
         <v>547.5562458447062</v>
@@ -37001,16 +37001,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>81.10166275847678</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37083,7 +37083,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
         <v>547.556245844706</v>
@@ -37241,13 +37241,13 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>383.6017480903502</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>375.9794342258294</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37314,7 +37314,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37393,10 +37393,10 @@
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366647</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>304.5047560030954</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>383.6017480903504</v>
       </c>
       <c r="P37" t="n">
         <v>452.8039900485103</v>
@@ -37548,13 +37548,13 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548409</v>
@@ -37621,7 +37621,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37706,16 +37706,16 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>281.8524450409514</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>309.8090425917339</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
@@ -37779,7 +37779,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -37788,7 +37788,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405465</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916792</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562325</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
@@ -37870,13 +37870,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>281.8524450409513</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38022,10 +38022,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38034,10 +38034,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
         <v>117.855135640546</v>
@@ -38183,19 +38183,19 @@
         <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>309.1157135712369</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
